--- a/data/exp1_data.xlsx
+++ b/data/exp1_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertan/Documents/CS551/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertan/Documents/CS551/flink-simplified-checkpoint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3A33F2-6C72-174B-AC6B-5274644BF869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E114E299-9CFE-B04C-B78C-AFA9B495A847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="1220" windowWidth="40100" windowHeight="23660" xr2:uid="{36416382-870A-8A4F-8BDF-25255DE382C1}"/>
+    <workbookView xWindow="1800" yWindow="1220" windowWidth="49400" windowHeight="25680" xr2:uid="{36416382-870A-8A4F-8BDF-25255DE382C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>default</t>
   </si>
@@ -204,24 +204,27 @@
   <si>
     <t>857ms</t>
   </si>
+  <si>
+    <t>throuput</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>latemcy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4163,6 +4166,1694 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Throughput</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" sz="2400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" sz="2400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Different</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Metrics</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Submission</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Interval</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" sz="2400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>5000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$33:$U$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-650F-B347-8B68-392666552042}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>7000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$56:$U$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-650F-B347-8B68-392666552042}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$59:$U$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-650F-B347-8B68-392666552042}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>12000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$62:$U$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>319</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-650F-B347-8B68-392666552042}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1537409791"/>
+        <c:axId val="1538073999"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1537409791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+                  <a:t>Minutes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1538073999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1538073999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+                  <a:t>Records</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+                  <a:t>per</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+                  <a:t>second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1537409791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+              <a:t>Latency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="2400" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2400" baseline="0"/>
+              <a:t>of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="2400" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2400" baseline="0"/>
+              <a:t>Different</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="2400" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2400" baseline="0"/>
+              <a:t>Metrics</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="2400" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2400" baseline="0"/>
+              <a:t>Submission</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="2400" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2400" baseline="0"/>
+              <a:t>Interval</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>5000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$34:$U$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4674-3348-BEC1-143501402B31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>7000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$57:$U$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4674-3348-BEC1-143501402B31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$60:$U$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4674-3348-BEC1-143501402B31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>12000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$63:$U$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4674-3348-BEC1-143501402B31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1507052415"/>
+        <c:axId val="1507054063"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1507052415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+                  <a:t>minutes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507054063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1507054063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+                  <a:t>milliseconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507052415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4363,6 +6054,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6577,6 +8348,1038 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7080,16 +9883,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7109,6 +9912,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB1BA1E-89DE-C648-96FF-EFA9465874E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D87B65-B757-9C42-9C02-48B9D374186C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7464,10 +10343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F023AA-9F73-F345-89CC-33C25D1D62F0}">
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R69" sqref="R69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8739,7 +11618,7 @@
         <v>28.31</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C49">
         <v>9.74</v>
       </c>
@@ -8751,6 +11630,419 @@
       </c>
       <c r="F49">
         <v>34.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>30000</v>
+      </c>
+      <c r="B54">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>372</v>
+      </c>
+      <c r="C56">
+        <v>397</v>
+      </c>
+      <c r="D56">
+        <v>399</v>
+      </c>
+      <c r="E56">
+        <v>395</v>
+      </c>
+      <c r="F56">
+        <v>397</v>
+      </c>
+      <c r="G56">
+        <v>389</v>
+      </c>
+      <c r="H56">
+        <v>386</v>
+      </c>
+      <c r="I56">
+        <v>374</v>
+      </c>
+      <c r="J56">
+        <v>378</v>
+      </c>
+      <c r="K56">
+        <v>381</v>
+      </c>
+      <c r="L56">
+        <v>342</v>
+      </c>
+      <c r="M56">
+        <v>316</v>
+      </c>
+      <c r="N56">
+        <v>313</v>
+      </c>
+      <c r="O56">
+        <v>315</v>
+      </c>
+      <c r="P56">
+        <v>305</v>
+      </c>
+      <c r="Q56">
+        <v>318</v>
+      </c>
+      <c r="R56">
+        <v>314</v>
+      </c>
+      <c r="S56">
+        <v>321</v>
+      </c>
+      <c r="T56">
+        <v>319</v>
+      </c>
+      <c r="U56">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57">
+        <v>86</v>
+      </c>
+      <c r="C57">
+        <v>88</v>
+      </c>
+      <c r="D57">
+        <v>74</v>
+      </c>
+      <c r="E57">
+        <v>96</v>
+      </c>
+      <c r="F57">
+        <v>98</v>
+      </c>
+      <c r="G57">
+        <v>76</v>
+      </c>
+      <c r="H57">
+        <v>102</v>
+      </c>
+      <c r="I57">
+        <v>94</v>
+      </c>
+      <c r="J57">
+        <v>88</v>
+      </c>
+      <c r="K57">
+        <v>86</v>
+      </c>
+      <c r="L57">
+        <v>104</v>
+      </c>
+      <c r="M57">
+        <v>96</v>
+      </c>
+      <c r="N57">
+        <v>88</v>
+      </c>
+      <c r="O57">
+        <v>86</v>
+      </c>
+      <c r="P57">
+        <v>98</v>
+      </c>
+      <c r="Q57">
+        <v>72</v>
+      </c>
+      <c r="R57">
+        <v>76</v>
+      </c>
+      <c r="S57">
+        <v>75</v>
+      </c>
+      <c r="T57">
+        <v>88</v>
+      </c>
+      <c r="U57">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>384</v>
+      </c>
+      <c r="C59">
+        <v>395</v>
+      </c>
+      <c r="D59">
+        <v>381</v>
+      </c>
+      <c r="E59">
+        <v>386</v>
+      </c>
+      <c r="F59">
+        <v>390</v>
+      </c>
+      <c r="G59">
+        <v>402</v>
+      </c>
+      <c r="H59">
+        <v>395</v>
+      </c>
+      <c r="I59">
+        <v>382</v>
+      </c>
+      <c r="J59">
+        <v>400</v>
+      </c>
+      <c r="K59">
+        <v>389</v>
+      </c>
+      <c r="L59">
+        <v>381</v>
+      </c>
+      <c r="M59">
+        <v>324</v>
+      </c>
+      <c r="N59">
+        <v>333</v>
+      </c>
+      <c r="O59">
+        <v>306</v>
+      </c>
+      <c r="P59">
+        <v>304</v>
+      </c>
+      <c r="Q59">
+        <v>308</v>
+      </c>
+      <c r="R59">
+        <v>305</v>
+      </c>
+      <c r="S59">
+        <v>306</v>
+      </c>
+      <c r="T59">
+        <v>306</v>
+      </c>
+      <c r="U59">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60">
+        <v>73</v>
+      </c>
+      <c r="C60">
+        <v>78</v>
+      </c>
+      <c r="D60">
+        <v>82</v>
+      </c>
+      <c r="E60">
+        <v>105</v>
+      </c>
+      <c r="F60">
+        <v>76</v>
+      </c>
+      <c r="G60">
+        <v>80</v>
+      </c>
+      <c r="H60">
+        <v>92</v>
+      </c>
+      <c r="I60">
+        <v>103</v>
+      </c>
+      <c r="J60">
+        <v>91</v>
+      </c>
+      <c r="K60">
+        <v>88</v>
+      </c>
+      <c r="L60">
+        <v>76</v>
+      </c>
+      <c r="M60">
+        <v>94</v>
+      </c>
+      <c r="N60">
+        <v>78</v>
+      </c>
+      <c r="O60">
+        <v>61</v>
+      </c>
+      <c r="P60">
+        <v>102</v>
+      </c>
+      <c r="Q60">
+        <v>87</v>
+      </c>
+      <c r="R60">
+        <v>91</v>
+      </c>
+      <c r="S60">
+        <v>76</v>
+      </c>
+      <c r="T60">
+        <v>78</v>
+      </c>
+      <c r="U60">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62">
+        <v>386</v>
+      </c>
+      <c r="C62">
+        <v>384</v>
+      </c>
+      <c r="D62">
+        <v>392</v>
+      </c>
+      <c r="E62">
+        <v>402</v>
+      </c>
+      <c r="F62">
+        <v>398</v>
+      </c>
+      <c r="G62">
+        <v>378</v>
+      </c>
+      <c r="H62">
+        <v>396</v>
+      </c>
+      <c r="I62">
+        <v>404</v>
+      </c>
+      <c r="J62">
+        <v>383</v>
+      </c>
+      <c r="K62">
+        <v>396</v>
+      </c>
+      <c r="L62">
+        <v>331</v>
+      </c>
+      <c r="M62">
+        <v>325</v>
+      </c>
+      <c r="N62">
+        <v>314</v>
+      </c>
+      <c r="O62">
+        <v>321</v>
+      </c>
+      <c r="P62">
+        <v>319</v>
+      </c>
+      <c r="Q62">
+        <v>308</v>
+      </c>
+      <c r="R62">
+        <v>319</v>
+      </c>
+      <c r="S62">
+        <v>322</v>
+      </c>
+      <c r="T62">
+        <v>325</v>
+      </c>
+      <c r="U62">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63">
+        <v>100</v>
+      </c>
+      <c r="C63">
+        <v>102</v>
+      </c>
+      <c r="D63">
+        <v>98</v>
+      </c>
+      <c r="E63">
+        <v>84</v>
+      </c>
+      <c r="F63">
+        <v>86</v>
+      </c>
+      <c r="G63">
+        <v>96</v>
+      </c>
+      <c r="H63">
+        <v>100</v>
+      </c>
+      <c r="I63">
+        <v>84</v>
+      </c>
+      <c r="J63">
+        <v>76</v>
+      </c>
+      <c r="K63">
+        <v>74</v>
+      </c>
+      <c r="L63">
+        <v>86</v>
+      </c>
+      <c r="M63">
+        <v>92</v>
+      </c>
+      <c r="N63">
+        <v>87</v>
+      </c>
+      <c r="O63">
+        <v>89</v>
+      </c>
+      <c r="P63">
+        <v>88</v>
+      </c>
+      <c r="Q63">
+        <v>92</v>
+      </c>
+      <c r="R63">
+        <v>72</v>
+      </c>
+      <c r="S63">
+        <v>83</v>
+      </c>
+      <c r="T63">
+        <v>104</v>
+      </c>
+      <c r="U63">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/data/exp1_data.xlsx
+++ b/data/exp1_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertan/Documents/CS551/flink-simplified-checkpoint/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertan/Documents/CS551/flink-simplified-checkpoint/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E114E299-9CFE-B04C-B78C-AFA9B495A847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1800DAF5-2779-4644-8DB6-8EB80AF47B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="1220" windowWidth="49400" windowHeight="25680" xr2:uid="{36416382-870A-8A4F-8BDF-25255DE382C1}"/>
   </bookViews>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>default</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>latemcy</t>
+  </si>
+  <si>
+    <t>Exp2 differ interval</t>
+  </si>
+  <si>
+    <t>exp1 differ interval</t>
   </si>
 </sst>
 </file>
@@ -9737,16 +9743,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9773,16 +9779,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9809,15 +9815,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9846,14 +9852,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9883,16 +9889,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9919,16 +9925,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10343,10 +10349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F023AA-9F73-F345-89CC-33C25D1D62F0}">
-  <dimension ref="A1:X63"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R69" sqref="R69"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11632,6 +11638,11 @@
         <v>34.1</v>
       </c>
     </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>30000</v>
@@ -12043,6 +12054,19 @@
       </c>
       <c r="U63">
         <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>3000</v>
+      </c>
+      <c r="B67">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/data/exp1_data.xlsx
+++ b/data/exp1_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertan/Documents/CS551/flink-simplified-checkpoint/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1800DAF5-2779-4644-8DB6-8EB80AF47B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BD3817-5ED0-9D46-9243-E106744D0AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="1220" windowWidth="49400" windowHeight="25680" xr2:uid="{36416382-870A-8A4F-8BDF-25255DE382C1}"/>
   </bookViews>
@@ -32,126 +32,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={6EB6ED29-0EF0-6B4B-8055-8B6C2589252D}</author>
-    <author>tc={09E83F9E-CEDA-244C-8706-7F0D60D9B85B}</author>
-    <author>tc={968D44CB-DB89-8B43-BFC4-6E10F4C25FEB}</author>
-    <author>tc={57527592-11C9-7C4D-94DC-78EC0C6CA41C}</author>
-    <author>tc={EBCE5F38-229B-FF4D-86B3-CCFA68AB9D76}</author>
-    <author>tc={C821412B-9704-524C-B190-DB22F84E48AE}</author>
-    <author>tc={A5913F50-1F4D-3D42-A364-A65B40E3F0C4}</author>
-    <author>tc={20F8F6A6-6A87-1543-B5FF-F9889C5B989B}</author>
-    <author>tc={ABEA3130-4ADA-EF4B-9F56-A161A5640A3D}</author>
-    <author>tc={19A7F1B3-5669-D844-AB16-9DBCAEC7F73C}</author>
-    <author>tc={8396715F-CA49-0049-BEA4-0A77CB9ECFDC}</author>
-    <author>tc={472177AD-B4F3-E54C-B5F7-2FE5756B81B3}</author>
-  </authors>
-  <commentList>
-    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{6EB6ED29-0EF0-6B4B-8055-8B6C2589252D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    at this time kill and restart</t>
-      </text>
-    </comment>
-    <comment ref="L19" authorId="1" shapeId="0" xr:uid="{09E83F9E-CEDA-244C-8706-7F0D60D9B85B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    seems at this time the speed becomes half</t>
-      </text>
-    </comment>
-    <comment ref="S19" authorId="2" shapeId="0" xr:uid="{968D44CB-DB89-8B43-BFC4-6E10F4C25FEB}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    this time, kill and restart again</t>
-      </text>
-    </comment>
-    <comment ref="G26" authorId="3" shapeId="0" xr:uid="{57527592-11C9-7C4D-94DC-78EC0C6CA41C}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    kill and restart
-</t>
-      </text>
-    </comment>
-    <comment ref="K26" authorId="4" shapeId="0" xr:uid="{EBCE5F38-229B-FF4D-86B3-CCFA68AB9D76}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    become half</t>
-      </text>
-    </comment>
-    <comment ref="M26" authorId="5" shapeId="0" xr:uid="{C821412B-9704-524C-B190-DB22F84E48AE}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    kill and restart again here</t>
-      </text>
-    </comment>
-    <comment ref="G33" authorId="6" shapeId="0" xr:uid="{A5913F50-1F4D-3D42-A364-A65B40E3F0C4}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    kill and restart
-</t>
-      </text>
-    </comment>
-    <comment ref="K33" authorId="7" shapeId="0" xr:uid="{20F8F6A6-6A87-1543-B5FF-F9889C5B989B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    become half</t>
-      </text>
-    </comment>
-    <comment ref="M33" authorId="8" shapeId="0" xr:uid="{ABEA3130-4ADA-EF4B-9F56-A161A5640A3D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    kill and restart again here</t>
-      </text>
-    </comment>
-    <comment ref="G39" authorId="9" shapeId="0" xr:uid="{19A7F1B3-5669-D844-AB16-9DBCAEC7F73C}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    kill and restart
-</t>
-      </text>
-    </comment>
-    <comment ref="K39" authorId="10" shapeId="0" xr:uid="{8396715F-CA49-0049-BEA4-0A77CB9ECFDC}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    become half</t>
-      </text>
-    </comment>
-    <comment ref="M39" authorId="11" shapeId="0" xr:uid="{472177AD-B4F3-E54C-B5F7-2FE5756B81B3}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    kill and restart again here</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10003,9 +9883,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="An, Yinan" id="{A4DDC1CC-0867-2447-B351-7EC9EB5A1215}" userId="S::albertan@bu.edu::3664e2d4-5042-4165-b4e1-16c5b7b52d61" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10303,56 +10181,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J19" dT="2022-04-26T17:26:04.13" personId="{A4DDC1CC-0867-2447-B351-7EC9EB5A1215}" id="{6EB6ED29-0EF0-6B4B-8055-8B6C2589252D}">
-    <text>at this time kill and restart</text>
-  </threadedComment>
-  <threadedComment ref="L19" dT="2022-04-26T17:26:28.68" personId="{A4DDC1CC-0867-2447-B351-7EC9EB5A1215}" id="{09E83F9E-CEDA-244C-8706-7F0D60D9B85B}">
-    <text>seems at this time the speed becomes half</text>
-  </threadedComment>
-  <threadedComment ref="S19" dT="2022-04-26T17:26:49.26" personId="{A4DDC1CC-0867-2447-B351-7EC9EB5A1215}" id="{968D44CB-DB89-8B43-BFC4-6E10F4C25FEB}">
-    <text>this time, kill and restart again</text>
-  </threadedComment>
-  <threadedComment ref="G26" dT="2022-04-26T18:58:15.83" personId="{A4DDC1CC-0867-2447-B351-7EC9EB5A1215}" id="{57527592-11C9-7C4D-94DC-78EC0C6CA41C}">
-    <text xml:space="preserve">kill and restart
-</text>
-  </threadedComment>
-  <threadedComment ref="K26" dT="2022-04-26T19:10:17.77" personId="{A4DDC1CC-0867-2447-B351-7EC9EB5A1215}" id="{EBCE5F38-229B-FF4D-86B3-CCFA68AB9D76}">
-    <text>become half</text>
-  </threadedComment>
-  <threadedComment ref="M26" dT="2022-04-26T19:24:04.77" personId="{A4DDC1CC-0867-2447-B351-7EC9EB5A1215}" id="{C821412B-9704-524C-B190-DB22F84E48AE}">
-    <text>kill and restart again here</text>
-  </threadedComment>
-  <threadedComment ref="G33" dT="2022-04-26T18:58:15.83" personId="{A4DDC1CC-0867-2447-B351-7EC9EB5A1215}" id="{A5913F50-1F4D-3D42-A364-A65B40E3F0C4}">
-    <text xml:space="preserve">kill and restart
-</text>
-  </threadedComment>
-  <threadedComment ref="K33" dT="2022-04-26T19:10:17.77" personId="{A4DDC1CC-0867-2447-B351-7EC9EB5A1215}" id="{20F8F6A6-6A87-1543-B5FF-F9889C5B989B}">
-    <text>become half</text>
-  </threadedComment>
-  <threadedComment ref="M33" dT="2022-04-26T19:24:04.77" personId="{A4DDC1CC-0867-2447-B351-7EC9EB5A1215}" id="{ABEA3130-4ADA-EF4B-9F56-A161A5640A3D}">
-    <text>kill and restart again here</text>
-  </threadedComment>
-  <threadedComment ref="G39" dT="2022-04-26T18:58:15.83" personId="{A4DDC1CC-0867-2447-B351-7EC9EB5A1215}" id="{19A7F1B3-5669-D844-AB16-9DBCAEC7F73C}">
-    <text xml:space="preserve">kill and restart
-</text>
-  </threadedComment>
-  <threadedComment ref="K39" dT="2022-04-26T19:10:17.77" personId="{A4DDC1CC-0867-2447-B351-7EC9EB5A1215}" id="{8396715F-CA49-0049-BEA4-0A77CB9ECFDC}">
-    <text>become half</text>
-  </threadedComment>
-  <threadedComment ref="M39" dT="2022-04-26T19:24:04.77" personId="{A4DDC1CC-0867-2447-B351-7EC9EB5A1215}" id="{472177AD-B4F3-E54C-B5F7-2FE5756B81B3}">
-    <text>kill and restart again here</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F023AA-9F73-F345-89CC-33C25D1D62F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F023AA-9F73-F345-89CC-33C25D1D62F0}">
   <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12072,6 +11906,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>